--- a/public/files/bulk-upload-lettings-legacy-template-2023-24.xlsx
+++ b/public/files/bulk-upload-lettings-legacy-template-2023-24.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="289">
   <si>
     <t>Question</t>
   </si>
@@ -536,7 +536,7 @@
     <t>Make sure the tenant has seen the attached privacy notice before completing this log</t>
   </si>
   <si>
-    <t>This is a letting to the same tenant in the same property</t>
+    <t>A renewal is a letting to the same tenant in the same property. If the property was previously being used as temporary accommodation, then answer 'no'.</t>
   </si>
   <si>
     <t>General needs housing includes both self-contained and shared housing without support or specific adaptations. Supported housing includes direct access hostels, group homes, residential care and nursing homes.</t>
@@ -849,7 +849,7 @@
     <t>Yes, if letting is a renewal (if field 6 = 1) or a first-time let (if field 27 = 15 - 17)</t>
   </si>
   <si>
-    <t>Yes, if letting is supported housing (if field 4 = 2) or if property's UPRN and local authority are known (if fields 18 and 25 are not empty)</t>
+    <t>Yes, if letting is supported housing (if field 4 = 2) or if property's UPRN or local authority is known (if field 18 or 25 is not empty)</t>
   </si>
   <si>
     <t>Yes, if no one in the household is a current or former regular (if field 79 is not 1)</t>
@@ -871,7 +871,10 @@
     <t>Yes, if letting is general needs (if field 4 = 1) or if management code is provided (if field 15 is not empty)</t>
   </si>
   <si>
-    <t>Yes, if letting is supported housing (if field 4 = 2) or if the property's postcode is not empty (if fields 23 and 24 contain full and valid entries)</t>
+    <t>Yes, if letting is supported housing (if field 4 = 2) or if the property's address is known (if fields 19, 21, 23 and 24 contain full and valid entries)</t>
+  </si>
+  <si>
+    <t>Yes, if letting is supported housing (if field 4 = 2) or if property's UPRN is known (if field 18 is not empty)</t>
   </si>
   <si>
     <t>Type of letting the question applies to</t>
@@ -1420,6 +1423,7 @@
     <col customWidth="1" min="118" max="118" width="13.5"/>
     <col customWidth="1" min="128" max="128" width="12.88"/>
     <col customWidth="1" min="132" max="132" width="13.63"/>
+    <col customWidth="1" min="135" max="135" width="13.25"/>
     <col customWidth="1" min="136" max="136" width="16.5"/>
     <col customWidth="1" min="138" max="138" width="17.38"/>
   </cols>
@@ -2702,13 +2706,13 @@
         <v>280</v>
       </c>
       <c r="EI4" s="20" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="EJ4" s="29" t="s">
         <v>226</v>
       </c>
       <c r="EK4" s="20" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="EL4" s="20" t="s">
         <v>226</v>
@@ -2716,13 +2720,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="20"/>
@@ -2806,7 +2810,7 @@
       <c r="CG5" s="20"/>
       <c r="CH5" s="31"/>
       <c r="CI5" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="CJ5" s="31"/>
       <c r="CK5" s="31"/>
@@ -2823,7 +2827,7 @@
       <c r="CV5" s="20"/>
       <c r="CW5" s="20"/>
       <c r="CX5" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CY5" s="13"/>
       <c r="CZ5" s="13"/>
@@ -2831,7 +2835,7 @@
       <c r="DB5" s="14"/>
       <c r="DC5" s="20"/>
       <c r="DD5" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DE5" s="13"/>
       <c r="DF5" s="14"/>
@@ -2843,7 +2847,7 @@
       <c r="DL5" s="20"/>
       <c r="DM5" s="31"/>
       <c r="DN5" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DO5" s="31"/>
       <c r="DP5" s="31"/>
@@ -2857,10 +2861,10 @@
       <c r="DX5" s="31"/>
       <c r="DY5" s="31"/>
       <c r="DZ5" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="EA5" s="23" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="EB5" s="14"/>
       <c r="EC5" s="24"/>
@@ -2868,10 +2872,10 @@
       <c r="EE5" s="19"/>
       <c r="EF5" s="19"/>
       <c r="EG5" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="EH5" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="EI5" s="13"/>
       <c r="EJ5" s="13"/>
@@ -2880,7 +2884,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="34"/>
@@ -2991,9 +2995,7 @@
       <c r="CT6" s="13"/>
       <c r="CU6" s="14"/>
       <c r="CV6" s="36"/>
-      <c r="CW6" s="32" t="s">
-        <v>226</v>
-      </c>
+      <c r="CW6" s="32"/>
       <c r="CX6" s="39"/>
       <c r="CY6" s="38"/>
       <c r="CZ6" s="39"/>
@@ -3040,7 +3042,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B7" s="42">
         <v>5.0</v>
@@ -3454,26 +3456,26 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="BD3:BI3"/>
     <mergeCell ref="BS3:BW3"/>
     <mergeCell ref="BX3:BZ3"/>
     <mergeCell ref="CC3:CH3"/>
+    <mergeCell ref="CZ3:DA3"/>
     <mergeCell ref="DP3:DY3"/>
     <mergeCell ref="DZ3:EA3"/>
+    <mergeCell ref="EE3:EF3"/>
     <mergeCell ref="EI3:EJ3"/>
     <mergeCell ref="EK3:EL3"/>
-    <mergeCell ref="CZ3:DA3"/>
-    <mergeCell ref="EE3:EF3"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="AC2:AI2"/>
+    <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="CL2:CN2"/>
     <mergeCell ref="CO2:CQ2"/>
     <mergeCell ref="N3:T3"/>
     <mergeCell ref="U3:AB3"/>
     <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="AR4:AT4"/>
     <mergeCell ref="AV4:AX4"/>
@@ -3487,18 +3489,18 @@
     <mergeCell ref="BS4:BW4"/>
     <mergeCell ref="BX4:BZ4"/>
     <mergeCell ref="CD4:CF4"/>
+    <mergeCell ref="CX5:DB5"/>
+    <mergeCell ref="DD5:DF5"/>
     <mergeCell ref="EA5:EB5"/>
     <mergeCell ref="EH5:EL5"/>
-    <mergeCell ref="EE4:EF4"/>
-    <mergeCell ref="CX5:DB5"/>
-    <mergeCell ref="CY4:DA4"/>
+    <mergeCell ref="CS6:CU6"/>
     <mergeCell ref="CL4:CN4"/>
     <mergeCell ref="CO4:CQ4"/>
     <mergeCell ref="CS4:CU4"/>
+    <mergeCell ref="CY4:DA4"/>
     <mergeCell ref="DE4:DF4"/>
     <mergeCell ref="DP4:DY4"/>
-    <mergeCell ref="DD5:DF5"/>
-    <mergeCell ref="CS6:CU6"/>
+    <mergeCell ref="EE4:EF4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/public/files/bulk-upload-lettings-legacy-template-2023-24.xlsx
+++ b/public/files/bulk-upload-lettings-legacy-template-2023-24.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SamuelIvko\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1173CD8D-1342-4F1A-BCE3-21275F4AB90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="289">
   <si>
     <t>Question</t>
   </si>
@@ -643,9 +652,6 @@
     <t>1 - 4, 7 - 10, 12 - 17</t>
   </si>
   <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
     <t>xxxx.xx</t>
   </si>
   <si>
@@ -896,43 +902,50 @@
   </si>
   <si>
     <t>Field number</t>
+  </si>
+  <si>
+    <t>1 - 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -943,7 +956,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -971,7 +984,13 @@
     </fill>
   </fills>
   <borders count="9">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -985,8 +1004,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -996,6 +1017,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1004,195 +1026,230 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1382,53 +1439,56 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:EL7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="13.38"/>
-    <col customWidth="1" min="10" max="10" width="19.13"/>
-    <col customWidth="1" min="13" max="13" width="12.88"/>
-    <col customWidth="1" min="14" max="14" width="13.38"/>
-    <col customWidth="1" min="15" max="15" width="13.25"/>
-    <col customWidth="1" min="16" max="16" width="13.88"/>
-    <col customWidth="1" min="17" max="17" width="13.25"/>
-    <col customWidth="1" min="18" max="18" width="13.88"/>
-    <col customWidth="1" min="19" max="19" width="13.5"/>
-    <col customWidth="1" min="20" max="20" width="13.25"/>
-    <col customWidth="1" min="29" max="29" width="13.63"/>
-    <col customWidth="1" min="30" max="31" width="13.38"/>
-    <col customWidth="1" min="32" max="32" width="13.5"/>
-    <col customWidth="1" min="33" max="33" width="13.88"/>
-    <col customWidth="1" min="34" max="34" width="13.63"/>
-    <col customWidth="1" min="35" max="35" width="13.25"/>
-    <col customWidth="1" min="46" max="46" width="15.5"/>
-    <col customWidth="1" min="51" max="51" width="16.63"/>
-    <col customWidth="1" min="53" max="53" width="13.63"/>
-    <col customWidth="1" min="81" max="81" width="13.0"/>
-    <col customWidth="1" min="87" max="87" width="13.38"/>
-    <col customWidth="1" min="102" max="102" width="14.63"/>
-    <col customWidth="1" min="118" max="118" width="13.5"/>
-    <col customWidth="1" min="128" max="128" width="12.88"/>
-    <col customWidth="1" min="132" max="132" width="13.63"/>
-    <col customWidth="1" min="135" max="135" width="13.25"/>
-    <col customWidth="1" min="136" max="136" width="16.5"/>
-    <col customWidth="1" min="138" max="138" width="17.38"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="19.08984375" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" customWidth="1"/>
+    <col min="14" max="14" width="13.36328125" customWidth="1"/>
+    <col min="15" max="15" width="13.26953125" customWidth="1"/>
+    <col min="16" max="16" width="13.90625" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" customWidth="1"/>
+    <col min="18" max="18" width="13.90625" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" customWidth="1"/>
+    <col min="20" max="20" width="13.26953125" customWidth="1"/>
+    <col min="29" max="29" width="13.6328125" customWidth="1"/>
+    <col min="30" max="31" width="13.36328125" customWidth="1"/>
+    <col min="32" max="32" width="13.453125" customWidth="1"/>
+    <col min="33" max="33" width="13.90625" customWidth="1"/>
+    <col min="34" max="34" width="13.6328125" customWidth="1"/>
+    <col min="35" max="35" width="13.26953125" customWidth="1"/>
+    <col min="46" max="46" width="15.453125" customWidth="1"/>
+    <col min="51" max="51" width="16.6328125" customWidth="1"/>
+    <col min="53" max="53" width="13.6328125" customWidth="1"/>
+    <col min="81" max="81" width="13" customWidth="1"/>
+    <col min="87" max="87" width="13.36328125" customWidth="1"/>
+    <col min="102" max="102" width="14.6328125" customWidth="1"/>
+    <col min="118" max="118" width="13.453125" customWidth="1"/>
+    <col min="128" max="128" width="12.90625" customWidth="1"/>
+    <col min="132" max="132" width="13.6328125" customWidth="1"/>
+    <col min="135" max="135" width="13.26953125" customWidth="1"/>
+    <col min="136" max="136" width="16.453125" customWidth="1"/>
+    <col min="138" max="138" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="120.75" customHeight="1">
+    <row r="1" spans="1:142" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1916,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:142" ht="138" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>136</v>
       </c>
@@ -1886,15 +1946,15 @@
       <c r="M2" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
       <c r="U2" s="12" t="s">
         <v>143</v>
       </c>
@@ -1905,15 +1965,15 @@
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="9"/>
-      <c r="AC2" s="12" t="s">
+      <c r="AC2" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
       <c r="AJ2" s="12" t="s">
         <v>143</v>
       </c>
@@ -1924,10 +1984,10 @@
       <c r="AO2" s="12"/>
       <c r="AP2" s="12"/>
       <c r="AQ2" s="12"/>
-      <c r="AR2" s="12" t="s">
+      <c r="AR2" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="AS2" s="13"/>
+      <c r="AS2" s="41"/>
       <c r="AT2" s="9" t="s">
         <v>146</v>
       </c>
@@ -1994,16 +2054,16 @@
       <c r="CK2" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="CL2" s="12" t="s">
+      <c r="CL2" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="CM2" s="13"/>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="12" t="s">
+      <c r="CM2" s="41"/>
+      <c r="CN2" s="42"/>
+      <c r="CO2" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="CP2" s="13"/>
-      <c r="CQ2" s="14"/>
+      <c r="CP2" s="41"/>
+      <c r="CQ2" s="42"/>
       <c r="CR2" s="9"/>
       <c r="CS2" s="9"/>
       <c r="CT2" s="9"/>
@@ -2025,14 +2085,14 @@
       <c r="DD2" s="9"/>
       <c r="DE2" s="9"/>
       <c r="DF2" s="9"/>
-      <c r="DG2" s="15"/>
+      <c r="DG2" s="13"/>
       <c r="DH2" s="9" t="s">
         <v>162</v>
       </c>
       <c r="DI2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="DJ2" s="16" t="s">
+      <c r="DJ2" s="14" t="s">
         <v>162</v>
       </c>
       <c r="DK2" s="9"/>
@@ -2059,7 +2119,7 @@
       <c r="DX2" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="DY2" s="17"/>
+      <c r="DY2" s="15"/>
       <c r="DZ2" s="9"/>
       <c r="EA2" s="9"/>
       <c r="EB2" s="9"/>
@@ -2073,7 +2133,7 @@
       <c r="EF2" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="EG2" s="18" t="s">
+      <c r="EG2" s="16" t="s">
         <v>172</v>
       </c>
       <c r="EH2" s="9" t="s">
@@ -2084,1388 +2144,1403 @@
       <c r="EK2" s="9"/>
       <c r="EL2" s="9"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:142" ht="80.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="23" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="23" t="s">
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="23" t="s">
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="20" t="s">
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="AS3" s="20" t="s">
+      <c r="AS3" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="AT3" s="20" t="s">
+      <c r="AT3" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="AU3" s="23" t="s">
+      <c r="AU3" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="20" t="s">
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="AX3" s="20" t="s">
+      <c r="AX3" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="AY3" s="20" t="s">
+      <c r="AY3" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="AZ3" s="20" t="s">
+      <c r="AZ3" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="BA3" s="20" t="s">
+      <c r="BA3" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="BB3" s="20" t="s">
+      <c r="BB3" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="23" t="s">
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="BE3" s="13"/>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="13"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="20" t="s">
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="41"/>
+      <c r="BG3" s="41"/>
+      <c r="BH3" s="41"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="BK3" s="20" t="s">
+      <c r="BK3" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="BL3" s="20" t="s">
+      <c r="BL3" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="BM3" s="20" t="s">
+      <c r="BM3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="BN3" s="23" t="s">
+      <c r="BN3" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="BO3" s="20" t="s">
+      <c r="BO3" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="BP3" s="20" t="s">
+      <c r="BP3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="BQ3" s="20" t="s">
+      <c r="BQ3" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="BR3" s="20" t="s">
+      <c r="BR3" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="BS3" s="23" t="s">
+      <c r="BS3" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="BT3" s="13"/>
-      <c r="BU3" s="13"/>
-      <c r="BV3" s="13"/>
-      <c r="BW3" s="14"/>
-      <c r="BX3" s="23" t="s">
+      <c r="BT3" s="41"/>
+      <c r="BU3" s="41"/>
+      <c r="BV3" s="41"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="48">
+        <v>45323</v>
+      </c>
+      <c r="BY3" s="41"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="CB3" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="CC3" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="CD3" s="41"/>
+      <c r="CE3" s="41"/>
+      <c r="CF3" s="41"/>
+      <c r="CG3" s="41"/>
+      <c r="CH3" s="41"/>
+      <c r="CI3" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="CJ3" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="CK3" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="CL3" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="CM3" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN3" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="CO3" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="CP3" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="CQ3" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="CR3" s="18"/>
+      <c r="CS3" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="CT3" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="CU3" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="CV3" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="CW3" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="CX3" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="CY3" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="CZ3" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="BY3" s="13"/>
-      <c r="BZ3" s="14"/>
-      <c r="CA3" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="CB3" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="CC3" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="CD3" s="13"/>
-      <c r="CE3" s="13"/>
-      <c r="CF3" s="13"/>
-      <c r="CG3" s="13"/>
-      <c r="CH3" s="13"/>
-      <c r="CI3" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="CJ3" s="20" t="s">
+      <c r="DA3" s="41"/>
+      <c r="DB3" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="DC3" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="DD3" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="DE3" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="DF3" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="DG3" s="18"/>
+      <c r="DH3" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="DI3" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="DJ3" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="DK3" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="DL3" s="18"/>
+      <c r="DM3" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="CK3" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="CL3" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="CM3" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="CN3" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="CO3" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="CP3" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="CQ3" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="CR3" s="20"/>
-      <c r="CS3" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="CT3" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="CU3" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="CV3" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="CW3" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="CX3" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="CY3" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="CZ3" s="23" t="s">
+      <c r="DN3" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="DO3" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="DP3" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="DQ3" s="41"/>
+      <c r="DR3" s="41"/>
+      <c r="DS3" s="41"/>
+      <c r="DT3" s="41"/>
+      <c r="DU3" s="41"/>
+      <c r="DV3" s="41"/>
+      <c r="DW3" s="41"/>
+      <c r="DX3" s="41"/>
+      <c r="DY3" s="41"/>
+      <c r="DZ3" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="EA3" s="42"/>
+      <c r="EB3" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="EC3" s="22">
+        <v>1</v>
+      </c>
+      <c r="ED3" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="EE3" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="DA3" s="13"/>
-      <c r="DB3" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="DC3" s="20" t="s">
+      <c r="EF3" s="42"/>
+      <c r="EG3" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="EH3" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="DD3" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="DE3" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="DF3" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="DG3" s="20"/>
-      <c r="DH3" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="DI3" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="DJ3" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="DK3" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="DL3" s="20"/>
-      <c r="DM3" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="DN3" s="20" t="s">
+      <c r="EI3" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ3" s="42"/>
+      <c r="EK3" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="EL3" s="42"/>
+    </row>
+    <row r="4" spans="1:142" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DO3" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="DP3" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="DQ3" s="13"/>
-      <c r="DR3" s="13"/>
-      <c r="DS3" s="13"/>
-      <c r="DT3" s="13"/>
-      <c r="DU3" s="13"/>
-      <c r="DV3" s="13"/>
-      <c r="DW3" s="13"/>
-      <c r="DX3" s="13"/>
-      <c r="DY3" s="13"/>
-      <c r="DZ3" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="EA3" s="14"/>
-      <c r="EB3" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="EC3" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="ED3" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="EE3" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="EF3" s="14"/>
-      <c r="EG3" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="EH3" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="EI3" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="EJ3" s="14"/>
-      <c r="EK3" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="EL3" s="14"/>
+      <c r="B4" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="41"/>
+      <c r="K4" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH4" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI4" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK4" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL4" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR4" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV4" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="AZ4" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="BC4" s="21"/>
+      <c r="BD4" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="BK4" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL4" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="BQ4" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="42"/>
+      <c r="BX4" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41"/>
+      <c r="CA4" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB4" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="CC4" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="CD4" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CH4" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="CI4" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="CJ4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK4" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="CL4" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="42"/>
+      <c r="CO4" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="18"/>
+      <c r="CS4" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="42"/>
+      <c r="CV4" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="CW4" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="CX4" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="CY4" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="DC4" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="DD4" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="DE4" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="DF4" s="42"/>
+      <c r="DG4" s="18"/>
+      <c r="DH4" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="DI4" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="DJ4" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="DK4" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="DL4" s="18"/>
+      <c r="DM4" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="DN4" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="DO4" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="DP4" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="DQ4" s="41"/>
+      <c r="DR4" s="41"/>
+      <c r="DS4" s="41"/>
+      <c r="DT4" s="41"/>
+      <c r="DU4" s="41"/>
+      <c r="DV4" s="41"/>
+      <c r="DW4" s="41"/>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="41"/>
+      <c r="DZ4" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="EA4" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="EB4" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="EC4" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="ED4" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="EE4" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="EF4" s="42"/>
+      <c r="EG4" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="EH4" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="EI4" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="EJ4" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="EK4" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="EL4" s="18" t="s">
+        <v>225</v>
+      </c>
     </row>
-    <row r="4" ht="117.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" s="23" t="s">
+    <row r="5" spans="1:142" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="27"/>
+      <c r="BA5" s="27"/>
+      <c r="BB5" s="27"/>
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="27"/>
+      <c r="BE5" s="27"/>
+      <c r="BF5" s="27"/>
+      <c r="BG5" s="27"/>
+      <c r="BH5" s="27"/>
+      <c r="BI5" s="27"/>
+      <c r="BJ5" s="28"/>
+      <c r="BK5" s="27"/>
+      <c r="BL5" s="27"/>
+      <c r="BM5" s="27"/>
+      <c r="BN5" s="27"/>
+      <c r="BO5" s="27"/>
+      <c r="BP5" s="27"/>
+      <c r="BQ5" s="27"/>
+      <c r="BR5" s="27"/>
+      <c r="BS5" s="27"/>
+      <c r="BT5" s="27"/>
+      <c r="BU5" s="27"/>
+      <c r="BV5" s="27"/>
+      <c r="BW5" s="27"/>
+      <c r="BX5" s="27"/>
+      <c r="BY5" s="27"/>
+      <c r="BZ5" s="27"/>
+      <c r="CA5" s="27"/>
+      <c r="CB5" s="27"/>
+      <c r="CC5" s="27"/>
+      <c r="CD5" s="27"/>
+      <c r="CE5" s="27"/>
+      <c r="CF5" s="27"/>
+      <c r="CG5" s="18"/>
+      <c r="CH5" s="27"/>
+      <c r="CI5" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="CJ5" s="27"/>
+      <c r="CK5" s="27"/>
+      <c r="CL5" s="18"/>
+      <c r="CM5" s="18"/>
+      <c r="CN5" s="18"/>
+      <c r="CO5" s="18"/>
+      <c r="CP5" s="18"/>
+      <c r="CQ5" s="18"/>
+      <c r="CR5" s="18"/>
+      <c r="CS5" s="18"/>
+      <c r="CT5" s="18"/>
+      <c r="CU5" s="18"/>
+      <c r="CV5" s="18"/>
+      <c r="CW5" s="18"/>
+      <c r="CX5" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="CY5" s="41"/>
+      <c r="CZ5" s="41"/>
+      <c r="DA5" s="41"/>
+      <c r="DB5" s="42"/>
+      <c r="DC5" s="18"/>
+      <c r="DD5" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="DE5" s="41"/>
+      <c r="DF5" s="42"/>
+      <c r="DG5" s="18"/>
+      <c r="DH5" s="18"/>
+      <c r="DI5" s="18"/>
+      <c r="DJ5" s="18"/>
+      <c r="DK5" s="27"/>
+      <c r="DL5" s="18"/>
+      <c r="DM5" s="27"/>
+      <c r="DN5" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="DO5" s="27"/>
+      <c r="DP5" s="27"/>
+      <c r="DQ5" s="27"/>
+      <c r="DR5" s="27"/>
+      <c r="DS5" s="27"/>
+      <c r="DT5" s="27"/>
+      <c r="DU5" s="27"/>
+      <c r="DV5" s="27"/>
+      <c r="DW5" s="27"/>
+      <c r="DX5" s="27"/>
+      <c r="DY5" s="27"/>
+      <c r="DZ5" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="EA5" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="EB5" s="42"/>
+      <c r="EC5" s="22"/>
+      <c r="ED5" s="18"/>
+      <c r="EE5" s="17"/>
+      <c r="EF5" s="17"/>
+      <c r="EG5" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="EH5" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="EI5" s="41"/>
+      <c r="EJ5" s="41"/>
+      <c r="EK5" s="41"/>
+      <c r="EL5" s="42"/>
+    </row>
+    <row r="6" spans="1:142" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="U4" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="X4" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y4" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z4" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA4" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB4" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC4" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD4" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE4" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF4" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG4" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH4" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="AI4" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ4" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK4" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="AL4" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="AM4" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="AN4" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO4" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="AP4" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="AQ4" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR4" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="AV4" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="AZ4" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="BC4" s="23"/>
-      <c r="BD4" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="BE4" s="13"/>
-      <c r="BF4" s="13"/>
-      <c r="BG4" s="14"/>
-      <c r="BH4" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="BI4" s="14"/>
-      <c r="BJ4" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="BK4" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="BL4" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="BM4" s="14"/>
-      <c r="BN4" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="BO4" s="14"/>
-      <c r="BP4" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="BQ4" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="BR4" s="13"/>
-      <c r="BS4" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="BT4" s="13"/>
-      <c r="BU4" s="13"/>
-      <c r="BV4" s="13"/>
-      <c r="BW4" s="14"/>
-      <c r="BX4" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="BY4" s="13"/>
-      <c r="BZ4" s="13"/>
-      <c r="CA4" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="CB4" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="CC4" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="CD4" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="CE4" s="13"/>
-      <c r="CF4" s="14"/>
-      <c r="CG4" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="CH4" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI4" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ4" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="CK4" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="CL4" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="CM4" s="13"/>
-      <c r="CN4" s="14"/>
-      <c r="CO4" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="CP4" s="13"/>
-      <c r="CQ4" s="14"/>
-      <c r="CR4" s="20"/>
-      <c r="CS4" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="CT4" s="13"/>
-      <c r="CU4" s="14"/>
-      <c r="CV4" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="CW4" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="CX4" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="CY4" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="CZ4" s="13"/>
-      <c r="DA4" s="13"/>
-      <c r="DB4" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="DC4" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="DD4" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="DE4" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="DF4" s="14"/>
-      <c r="DG4" s="20"/>
-      <c r="DH4" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="DI4" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="DJ4" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="DK4" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="DL4" s="20"/>
-      <c r="DM4" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="DN4" s="20" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="DO4" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="DP4" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="DQ4" s="13"/>
-      <c r="DR4" s="13"/>
-      <c r="DS4" s="13"/>
-      <c r="DT4" s="13"/>
-      <c r="DU4" s="13"/>
-      <c r="DV4" s="13"/>
-      <c r="DW4" s="13"/>
-      <c r="DX4" s="13"/>
-      <c r="DY4" s="13"/>
-      <c r="DZ4" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="EA4" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="EB4" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="EC4" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="ED4" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="EE4" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="EF4" s="14"/>
-      <c r="EG4" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="EH4" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="EI4" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="EJ4" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="EK4" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="EL4" s="20" t="s">
-        <v>226</v>
-      </c>
+      <c r="N6" s="32"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="V6" s="33"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="30"/>
+      <c r="BA6" s="32"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="32"/>
+      <c r="BD6" s="32"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="32"/>
+      <c r="BJ6" s="32"/>
+      <c r="BK6" s="32"/>
+      <c r="BL6" s="32"/>
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="32"/>
+      <c r="BS6" s="32"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BW6" s="32"/>
+      <c r="BX6" s="32"/>
+      <c r="BY6" s="32"/>
+      <c r="BZ6" s="32"/>
+      <c r="CA6" s="32"/>
+      <c r="CB6" s="32"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
+      <c r="CE6" s="30"/>
+      <c r="CF6" s="30"/>
+      <c r="CG6" s="30"/>
+      <c r="CH6" s="33"/>
+      <c r="CI6" s="34"/>
+      <c r="CJ6" s="30"/>
+      <c r="CK6" s="30"/>
+      <c r="CL6" s="35"/>
+      <c r="CM6" s="34"/>
+      <c r="CN6" s="35"/>
+      <c r="CO6" s="34"/>
+      <c r="CP6" s="35"/>
+      <c r="CQ6" s="34"/>
+      <c r="CR6" s="35"/>
+      <c r="CS6" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="CT6" s="41"/>
+      <c r="CU6" s="42"/>
+      <c r="CV6" s="32"/>
+      <c r="CW6" s="28"/>
+      <c r="CX6" s="35"/>
+      <c r="CY6" s="34"/>
+      <c r="CZ6" s="35"/>
+      <c r="DA6" s="34"/>
+      <c r="DB6" s="30"/>
+      <c r="DC6" s="30"/>
+      <c r="DD6" s="32"/>
+      <c r="DE6" s="32"/>
+      <c r="DF6" s="32"/>
+      <c r="DG6" s="35"/>
+      <c r="DH6" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="DI6" s="32"/>
+      <c r="DJ6" s="32"/>
+      <c r="DK6" s="31"/>
+      <c r="DL6" s="35"/>
+      <c r="DM6" s="28"/>
+      <c r="DN6" s="32"/>
+      <c r="DO6" s="33"/>
+      <c r="DP6" s="34"/>
+      <c r="DQ6" s="33"/>
+      <c r="DR6" s="34"/>
+      <c r="DS6" s="34"/>
+      <c r="DT6" s="34"/>
+      <c r="DU6" s="34"/>
+      <c r="DV6" s="33"/>
+      <c r="DW6" s="34"/>
+      <c r="DX6" s="33"/>
+      <c r="DY6" s="34"/>
+      <c r="DZ6" s="32"/>
+      <c r="EA6" s="32"/>
+      <c r="EB6" s="32"/>
+      <c r="EC6" s="36"/>
+      <c r="ED6" s="32"/>
+      <c r="EE6" s="37"/>
+      <c r="EF6" s="29"/>
+      <c r="EG6" s="32"/>
+      <c r="EH6" s="32"/>
+      <c r="EI6" s="32"/>
+      <c r="EJ6" s="32"/>
+      <c r="EK6" s="32"/>
+      <c r="EL6" s="32"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="31"/>
-      <c r="AY5" s="31"/>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="31"/>
-      <c r="BB5" s="31"/>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="31"/>
-      <c r="BE5" s="31"/>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="31"/>
-      <c r="BH5" s="31"/>
-      <c r="BI5" s="31"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="31"/>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="31"/>
-      <c r="BN5" s="31"/>
-      <c r="BO5" s="31"/>
-      <c r="BP5" s="31"/>
-      <c r="BQ5" s="31"/>
-      <c r="BR5" s="31"/>
-      <c r="BS5" s="31"/>
-      <c r="BT5" s="31"/>
-      <c r="BU5" s="31"/>
-      <c r="BV5" s="31"/>
-      <c r="BW5" s="31"/>
-      <c r="BX5" s="31"/>
-      <c r="BY5" s="31"/>
-      <c r="BZ5" s="31"/>
-      <c r="CA5" s="31"/>
-      <c r="CB5" s="31"/>
-      <c r="CC5" s="31"/>
-      <c r="CD5" s="31"/>
-      <c r="CE5" s="31"/>
-      <c r="CF5" s="31"/>
-      <c r="CG5" s="20"/>
-      <c r="CH5" s="31"/>
-      <c r="CI5" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="CJ5" s="31"/>
-      <c r="CK5" s="31"/>
-      <c r="CL5" s="20"/>
-      <c r="CM5" s="20"/>
-      <c r="CN5" s="20"/>
-      <c r="CO5" s="20"/>
-      <c r="CP5" s="20"/>
-      <c r="CQ5" s="20"/>
-      <c r="CR5" s="20"/>
-      <c r="CS5" s="20"/>
-      <c r="CT5" s="20"/>
-      <c r="CU5" s="20"/>
-      <c r="CV5" s="20"/>
-      <c r="CW5" s="20"/>
-      <c r="CX5" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="CY5" s="13"/>
-      <c r="CZ5" s="13"/>
-      <c r="DA5" s="13"/>
-      <c r="DB5" s="14"/>
-      <c r="DC5" s="20"/>
-      <c r="DD5" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="DE5" s="13"/>
-      <c r="DF5" s="14"/>
-      <c r="DG5" s="20"/>
-      <c r="DH5" s="20"/>
-      <c r="DI5" s="20"/>
-      <c r="DJ5" s="20"/>
-      <c r="DK5" s="31"/>
-      <c r="DL5" s="20"/>
-      <c r="DM5" s="31"/>
-      <c r="DN5" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="DO5" s="31"/>
-      <c r="DP5" s="31"/>
-      <c r="DQ5" s="31"/>
-      <c r="DR5" s="31"/>
-      <c r="DS5" s="31"/>
-      <c r="DT5" s="31"/>
-      <c r="DU5" s="31"/>
-      <c r="DV5" s="31"/>
-      <c r="DW5" s="31"/>
-      <c r="DX5" s="31"/>
-      <c r="DY5" s="31"/>
-      <c r="DZ5" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="EA5" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="EB5" s="14"/>
-      <c r="EC5" s="24"/>
-      <c r="ED5" s="20"/>
-      <c r="EE5" s="19"/>
-      <c r="EF5" s="19"/>
-      <c r="EG5" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="EH5" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="EI5" s="13"/>
-      <c r="EJ5" s="13"/>
-      <c r="EK5" s="13"/>
-      <c r="EL5" s="14"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:142" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="V6" s="37"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="36"/>
-      <c r="AS6" s="36"/>
-      <c r="AT6" s="36"/>
-      <c r="AU6" s="36"/>
-      <c r="AV6" s="36"/>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="36"/>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="36"/>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
-      <c r="BH6" s="36"/>
-      <c r="BI6" s="36"/>
-      <c r="BJ6" s="36"/>
-      <c r="BK6" s="36"/>
-      <c r="BL6" s="36"/>
-      <c r="BM6" s="36"/>
-      <c r="BN6" s="36"/>
-      <c r="BO6" s="36"/>
-      <c r="BP6" s="36"/>
-      <c r="BQ6" s="36"/>
-      <c r="BR6" s="36"/>
-      <c r="BS6" s="36"/>
-      <c r="BT6" s="36"/>
-      <c r="BU6" s="36"/>
-      <c r="BV6" s="36"/>
-      <c r="BW6" s="36"/>
-      <c r="BX6" s="36"/>
-      <c r="BY6" s="36"/>
-      <c r="BZ6" s="36"/>
-      <c r="CA6" s="36"/>
-      <c r="CB6" s="36"/>
-      <c r="CC6" s="36"/>
-      <c r="CD6" s="36"/>
-      <c r="CE6" s="34"/>
-      <c r="CF6" s="34"/>
-      <c r="CG6" s="34"/>
-      <c r="CH6" s="37"/>
-      <c r="CI6" s="38"/>
-      <c r="CJ6" s="34"/>
-      <c r="CK6" s="34"/>
-      <c r="CL6" s="39"/>
-      <c r="CM6" s="38"/>
-      <c r="CN6" s="39"/>
-      <c r="CO6" s="38"/>
-      <c r="CP6" s="39"/>
-      <c r="CQ6" s="38"/>
-      <c r="CR6" s="39"/>
-      <c r="CS6" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="CT6" s="13"/>
-      <c r="CU6" s="14"/>
-      <c r="CV6" s="36"/>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="39"/>
-      <c r="CY6" s="38"/>
-      <c r="CZ6" s="39"/>
-      <c r="DA6" s="38"/>
-      <c r="DB6" s="34"/>
-      <c r="DC6" s="34"/>
-      <c r="DD6" s="36"/>
-      <c r="DE6" s="36"/>
-      <c r="DF6" s="36"/>
-      <c r="DG6" s="39"/>
-      <c r="DH6" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="DI6" s="36"/>
-      <c r="DJ6" s="36"/>
-      <c r="DK6" s="35"/>
-      <c r="DL6" s="39"/>
-      <c r="DM6" s="32"/>
-      <c r="DN6" s="36"/>
-      <c r="DO6" s="37"/>
-      <c r="DP6" s="38"/>
-      <c r="DQ6" s="37"/>
-      <c r="DR6" s="38"/>
-      <c r="DS6" s="38"/>
-      <c r="DT6" s="38"/>
-      <c r="DU6" s="38"/>
-      <c r="DV6" s="37"/>
-      <c r="DW6" s="38"/>
-      <c r="DX6" s="37"/>
-      <c r="DY6" s="38"/>
-      <c r="DZ6" s="36"/>
-      <c r="EA6" s="36"/>
-      <c r="EB6" s="36"/>
-      <c r="EC6" s="40"/>
-      <c r="ED6" s="36"/>
-      <c r="EE6" s="41"/>
-      <c r="EF6" s="33"/>
-      <c r="EG6" s="36"/>
-      <c r="EH6" s="36"/>
-      <c r="EI6" s="36"/>
-      <c r="EJ6" s="36"/>
-      <c r="EK6" s="36"/>
-      <c r="EL6" s="36"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="42">
-        <v>5.0</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="34">
-        <v>15.0</v>
-      </c>
-      <c r="F7" s="34">
-        <v>16.0</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="34">
-        <v>13.0</v>
-      </c>
-      <c r="I7" s="34">
-        <v>40.0</v>
-      </c>
-      <c r="J7" s="34">
-        <v>41.0</v>
-      </c>
-      <c r="K7" s="34">
-        <v>42.0</v>
-      </c>
-      <c r="L7" s="34">
-        <v>43.0</v>
-      </c>
-      <c r="M7" s="34">
-        <v>46.0</v>
-      </c>
-      <c r="N7" s="34">
-        <v>52.0</v>
-      </c>
-      <c r="O7" s="34">
-        <v>56.0</v>
-      </c>
-      <c r="P7" s="34">
-        <v>60.0</v>
-      </c>
-      <c r="Q7" s="34">
-        <v>64.0</v>
-      </c>
-      <c r="R7" s="34">
-        <v>68.0</v>
-      </c>
-      <c r="S7" s="34">
-        <v>72.0</v>
-      </c>
-      <c r="T7" s="34">
-        <v>76.0</v>
-      </c>
-      <c r="U7" s="34">
-        <v>47.0</v>
-      </c>
-      <c r="V7" s="34">
-        <v>53.0</v>
-      </c>
-      <c r="W7" s="34">
-        <v>57.0</v>
-      </c>
-      <c r="X7" s="34">
-        <v>61.0</v>
-      </c>
-      <c r="Y7" s="34">
-        <v>65.0</v>
-      </c>
-      <c r="Z7" s="34">
-        <v>69.0</v>
-      </c>
-      <c r="AA7" s="34">
-        <v>73.0</v>
-      </c>
-      <c r="AB7" s="34">
-        <v>77.0</v>
-      </c>
-      <c r="AC7" s="34">
-        <v>51.0</v>
-      </c>
-      <c r="AD7" s="34">
-        <v>55.0</v>
-      </c>
-      <c r="AE7" s="34">
-        <v>59.0</v>
-      </c>
-      <c r="AF7" s="34">
-        <v>63.0</v>
-      </c>
-      <c r="AG7" s="34">
-        <v>67.0</v>
-      </c>
-      <c r="AH7" s="34">
-        <v>71.0</v>
-      </c>
-      <c r="AI7" s="34">
-        <v>75.0</v>
-      </c>
-      <c r="AJ7" s="34">
-        <v>50.0</v>
-      </c>
-      <c r="AK7" s="34">
-        <v>54.0</v>
-      </c>
-      <c r="AL7" s="34">
-        <v>58.0</v>
-      </c>
-      <c r="AM7" s="34">
-        <v>62.0</v>
-      </c>
-      <c r="AN7" s="34">
-        <v>66.0</v>
-      </c>
-      <c r="AO7" s="34">
-        <v>70.0</v>
-      </c>
-      <c r="AP7" s="34">
-        <v>74.0</v>
-      </c>
-      <c r="AQ7" s="34">
-        <v>78.0</v>
-      </c>
-      <c r="AR7" s="34">
-        <v>48.0</v>
-      </c>
-      <c r="AS7" s="34">
-        <v>49.0</v>
-      </c>
-      <c r="AT7" s="34">
-        <v>79.0</v>
-      </c>
-      <c r="AU7" s="34">
-        <v>81.0</v>
-      </c>
-      <c r="AV7" s="34">
-        <v>82.0</v>
-      </c>
-      <c r="AW7" s="34">
-        <v>123.0</v>
-      </c>
-      <c r="AX7" s="34">
-        <v>124.0</v>
-      </c>
-      <c r="AY7" s="34">
-        <v>122.0</v>
-      </c>
-      <c r="AZ7" s="34">
-        <v>120.0</v>
-      </c>
-      <c r="BA7" s="34">
-        <v>102.0</v>
-      </c>
-      <c r="BB7" s="34">
-        <v>103.0</v>
-      </c>
-      <c r="BC7" s="34"/>
-      <c r="BD7" s="34">
-        <v>83.0</v>
-      </c>
-      <c r="BE7" s="34">
-        <v>84.0</v>
-      </c>
-      <c r="BF7" s="34">
-        <v>85.0</v>
-      </c>
-      <c r="BG7" s="34">
-        <v>86.0</v>
-      </c>
-      <c r="BH7" s="34">
-        <v>87.0</v>
-      </c>
-      <c r="BI7" s="34">
-        <v>88.0</v>
-      </c>
-      <c r="BJ7" s="34">
-        <v>104.0</v>
-      </c>
-      <c r="BK7" s="34">
-        <v>109.0</v>
-      </c>
-      <c r="BL7" s="34">
-        <v>107.0</v>
-      </c>
-      <c r="BM7" s="34">
-        <v>108.0</v>
-      </c>
-      <c r="BN7" s="34">
-        <v>106.0</v>
-      </c>
-      <c r="BO7" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="BP7" s="34">
-        <v>101.0</v>
-      </c>
-      <c r="BQ7" s="34">
-        <v>105.0</v>
-      </c>
-      <c r="BR7" s="34">
-        <v>110.0</v>
-      </c>
-      <c r="BS7" s="34">
-        <v>111.0</v>
-      </c>
-      <c r="BT7" s="34">
-        <v>112.0</v>
-      </c>
-      <c r="BU7" s="34">
-        <v>113.0</v>
-      </c>
-      <c r="BV7" s="34">
-        <v>114.0</v>
-      </c>
-      <c r="BW7" s="34">
-        <v>115.0</v>
-      </c>
-      <c r="BX7" s="34">
-        <v>116.0</v>
-      </c>
-      <c r="BY7" s="34">
-        <v>118.0</v>
-      </c>
-      <c r="BZ7" s="34">
-        <v>117.0</v>
-      </c>
-      <c r="CA7" s="34">
-        <v>119.0</v>
-      </c>
-      <c r="CB7" s="34">
-        <v>126.0</v>
-      </c>
-      <c r="CC7" s="34">
-        <v>128.0</v>
-      </c>
-      <c r="CD7" s="34">
-        <v>129.0</v>
-      </c>
-      <c r="CE7" s="34">
-        <v>130.0</v>
-      </c>
-      <c r="CF7" s="34">
-        <v>131.0</v>
-      </c>
-      <c r="CG7" s="34">
-        <v>132.0</v>
-      </c>
-      <c r="CH7" s="34">
-        <v>127.0</v>
-      </c>
-      <c r="CI7" s="34">
-        <v>125.0</v>
-      </c>
-      <c r="CJ7" s="34">
-        <v>133.0</v>
-      </c>
-      <c r="CK7" s="34">
-        <v>134.0</v>
-      </c>
-      <c r="CL7" s="34">
-        <v>33.0</v>
-      </c>
-      <c r="CM7" s="34">
-        <v>34.0</v>
-      </c>
-      <c r="CN7" s="34">
-        <v>35.0</v>
-      </c>
-      <c r="CO7" s="34">
-        <v>36.0</v>
-      </c>
-      <c r="CP7" s="34">
-        <v>37.0</v>
-      </c>
-      <c r="CQ7" s="34">
-        <v>38.0</v>
-      </c>
-      <c r="CR7" s="34"/>
-      <c r="CS7" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="CT7" s="34">
-        <v>8.0</v>
-      </c>
-      <c r="CU7" s="34">
-        <v>9.0</v>
-      </c>
-      <c r="CV7" s="34">
-        <v>28.0</v>
-      </c>
-      <c r="CW7" s="34">
-        <v>14.0</v>
-      </c>
-      <c r="CX7" s="34">
-        <v>32.0</v>
-      </c>
-      <c r="CY7" s="34">
-        <v>29.0</v>
-      </c>
-      <c r="CZ7" s="34">
-        <v>30.0</v>
-      </c>
-      <c r="DA7" s="34">
-        <v>31.0</v>
-      </c>
-      <c r="DB7" s="34">
-        <v>26.0</v>
-      </c>
-      <c r="DC7" s="34">
-        <v>27.0</v>
-      </c>
-      <c r="DD7" s="34">
-        <v>25.0</v>
-      </c>
-      <c r="DE7" s="34">
-        <v>23.0</v>
-      </c>
-      <c r="DF7" s="34">
-        <v>24.0</v>
-      </c>
-      <c r="DG7" s="34"/>
-      <c r="DH7" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="DI7" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="DJ7" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="DK7" s="34">
-        <v>80.0</v>
-      </c>
-      <c r="DL7" s="34"/>
-      <c r="DM7" s="34">
-        <v>121.0</v>
-      </c>
-      <c r="DN7" s="34">
-        <v>44.0</v>
-      </c>
-      <c r="DO7" s="34">
-        <v>89.0</v>
-      </c>
-      <c r="DP7" s="34">
-        <v>98.0</v>
-      </c>
-      <c r="DQ7" s="34">
-        <v>92.0</v>
-      </c>
-      <c r="DR7" s="34">
-        <v>95.0</v>
-      </c>
-      <c r="DS7" s="34">
-        <v>90.0</v>
-      </c>
-      <c r="DT7" s="34">
-        <v>91.0</v>
-      </c>
-      <c r="DU7" s="34">
-        <v>93.0</v>
-      </c>
-      <c r="DV7" s="34">
-        <v>94.0</v>
-      </c>
-      <c r="DW7" s="34">
-        <v>97.0</v>
-      </c>
-      <c r="DX7" s="34">
-        <v>96.0</v>
-      </c>
-      <c r="DY7" s="34">
-        <v>99.0</v>
-      </c>
-      <c r="DZ7" s="34">
-        <v>10.0</v>
-      </c>
-      <c r="EA7" s="34">
-        <v>11.0</v>
-      </c>
-      <c r="EB7" s="34">
-        <v>12.0</v>
-      </c>
-      <c r="EC7" s="43">
-        <v>45.0</v>
-      </c>
-      <c r="ED7" s="34">
-        <v>39.0</v>
-      </c>
-      <c r="EE7" s="42">
-        <v>6.0</v>
-      </c>
-      <c r="EF7" s="42">
-        <v>4.0</v>
-      </c>
-      <c r="EG7" s="34">
-        <v>17.0</v>
-      </c>
-      <c r="EH7" s="34">
-        <v>18.0</v>
-      </c>
-      <c r="EI7" s="34">
-        <v>19.0</v>
-      </c>
-      <c r="EJ7" s="34">
-        <v>20.0</v>
-      </c>
-      <c r="EK7" s="34">
-        <v>21.0</v>
-      </c>
-      <c r="EL7" s="34">
-        <v>22.0</v>
+      <c r="B7" s="38">
+        <v>5</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="30">
+        <v>15</v>
+      </c>
+      <c r="F7" s="30">
+        <v>16</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="30">
+        <v>13</v>
+      </c>
+      <c r="I7" s="30">
+        <v>40</v>
+      </c>
+      <c r="J7" s="30">
+        <v>41</v>
+      </c>
+      <c r="K7" s="30">
+        <v>42</v>
+      </c>
+      <c r="L7" s="30">
+        <v>43</v>
+      </c>
+      <c r="M7" s="30">
+        <v>46</v>
+      </c>
+      <c r="N7" s="30">
+        <v>52</v>
+      </c>
+      <c r="O7" s="30">
+        <v>56</v>
+      </c>
+      <c r="P7" s="30">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>64</v>
+      </c>
+      <c r="R7" s="30">
+        <v>68</v>
+      </c>
+      <c r="S7" s="30">
+        <v>72</v>
+      </c>
+      <c r="T7" s="30">
+        <v>76</v>
+      </c>
+      <c r="U7" s="30">
+        <v>47</v>
+      </c>
+      <c r="V7" s="30">
+        <v>53</v>
+      </c>
+      <c r="W7" s="30">
+        <v>57</v>
+      </c>
+      <c r="X7" s="30">
+        <v>61</v>
+      </c>
+      <c r="Y7" s="30">
+        <v>65</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>69</v>
+      </c>
+      <c r="AA7" s="30">
+        <v>73</v>
+      </c>
+      <c r="AB7" s="30">
+        <v>77</v>
+      </c>
+      <c r="AC7" s="30">
+        <v>51</v>
+      </c>
+      <c r="AD7" s="30">
+        <v>55</v>
+      </c>
+      <c r="AE7" s="30">
+        <v>59</v>
+      </c>
+      <c r="AF7" s="30">
+        <v>63</v>
+      </c>
+      <c r="AG7" s="30">
+        <v>67</v>
+      </c>
+      <c r="AH7" s="30">
+        <v>71</v>
+      </c>
+      <c r="AI7" s="30">
+        <v>75</v>
+      </c>
+      <c r="AJ7" s="30">
+        <v>50</v>
+      </c>
+      <c r="AK7" s="30">
+        <v>54</v>
+      </c>
+      <c r="AL7" s="30">
+        <v>58</v>
+      </c>
+      <c r="AM7" s="30">
+        <v>62</v>
+      </c>
+      <c r="AN7" s="30">
+        <v>66</v>
+      </c>
+      <c r="AO7" s="30">
+        <v>70</v>
+      </c>
+      <c r="AP7" s="30">
+        <v>74</v>
+      </c>
+      <c r="AQ7" s="30">
+        <v>78</v>
+      </c>
+      <c r="AR7" s="30">
+        <v>48</v>
+      </c>
+      <c r="AS7" s="30">
+        <v>49</v>
+      </c>
+      <c r="AT7" s="30">
+        <v>79</v>
+      </c>
+      <c r="AU7" s="30">
+        <v>81</v>
+      </c>
+      <c r="AV7" s="30">
+        <v>82</v>
+      </c>
+      <c r="AW7" s="30">
+        <v>123</v>
+      </c>
+      <c r="AX7" s="30">
+        <v>124</v>
+      </c>
+      <c r="AY7" s="30">
+        <v>122</v>
+      </c>
+      <c r="AZ7" s="30">
+        <v>120</v>
+      </c>
+      <c r="BA7" s="30">
+        <v>102</v>
+      </c>
+      <c r="BB7" s="30">
+        <v>103</v>
+      </c>
+      <c r="BC7" s="30"/>
+      <c r="BD7" s="30">
+        <v>83</v>
+      </c>
+      <c r="BE7" s="30">
+        <v>84</v>
+      </c>
+      <c r="BF7" s="30">
+        <v>85</v>
+      </c>
+      <c r="BG7" s="30">
+        <v>86</v>
+      </c>
+      <c r="BH7" s="30">
+        <v>87</v>
+      </c>
+      <c r="BI7" s="30">
+        <v>88</v>
+      </c>
+      <c r="BJ7" s="30">
+        <v>104</v>
+      </c>
+      <c r="BK7" s="30">
+        <v>109</v>
+      </c>
+      <c r="BL7" s="30">
+        <v>107</v>
+      </c>
+      <c r="BM7" s="30">
+        <v>108</v>
+      </c>
+      <c r="BN7" s="30">
+        <v>106</v>
+      </c>
+      <c r="BO7" s="30">
+        <v>100</v>
+      </c>
+      <c r="BP7" s="30">
+        <v>101</v>
+      </c>
+      <c r="BQ7" s="30">
+        <v>105</v>
+      </c>
+      <c r="BR7" s="30">
+        <v>110</v>
+      </c>
+      <c r="BS7" s="30">
+        <v>111</v>
+      </c>
+      <c r="BT7" s="30">
+        <v>112</v>
+      </c>
+      <c r="BU7" s="30">
+        <v>113</v>
+      </c>
+      <c r="BV7" s="30">
+        <v>114</v>
+      </c>
+      <c r="BW7" s="30">
+        <v>115</v>
+      </c>
+      <c r="BX7" s="30">
+        <v>116</v>
+      </c>
+      <c r="BY7" s="30">
+        <v>118</v>
+      </c>
+      <c r="BZ7" s="30">
+        <v>117</v>
+      </c>
+      <c r="CA7" s="30">
+        <v>119</v>
+      </c>
+      <c r="CB7" s="30">
+        <v>126</v>
+      </c>
+      <c r="CC7" s="30">
+        <v>128</v>
+      </c>
+      <c r="CD7" s="30">
+        <v>129</v>
+      </c>
+      <c r="CE7" s="30">
+        <v>130</v>
+      </c>
+      <c r="CF7" s="30">
+        <v>131</v>
+      </c>
+      <c r="CG7" s="30">
+        <v>132</v>
+      </c>
+      <c r="CH7" s="30">
+        <v>127</v>
+      </c>
+      <c r="CI7" s="30">
+        <v>125</v>
+      </c>
+      <c r="CJ7" s="30">
+        <v>133</v>
+      </c>
+      <c r="CK7" s="30">
+        <v>134</v>
+      </c>
+      <c r="CL7" s="30">
+        <v>33</v>
+      </c>
+      <c r="CM7" s="30">
+        <v>34</v>
+      </c>
+      <c r="CN7" s="30">
+        <v>35</v>
+      </c>
+      <c r="CO7" s="30">
+        <v>36</v>
+      </c>
+      <c r="CP7" s="30">
+        <v>37</v>
+      </c>
+      <c r="CQ7" s="30">
+        <v>38</v>
+      </c>
+      <c r="CR7" s="30"/>
+      <c r="CS7" s="30">
+        <v>7</v>
+      </c>
+      <c r="CT7" s="30">
+        <v>8</v>
+      </c>
+      <c r="CU7" s="30">
+        <v>9</v>
+      </c>
+      <c r="CV7" s="30">
+        <v>28</v>
+      </c>
+      <c r="CW7" s="30">
+        <v>14</v>
+      </c>
+      <c r="CX7" s="30">
+        <v>32</v>
+      </c>
+      <c r="CY7" s="30">
+        <v>29</v>
+      </c>
+      <c r="CZ7" s="30">
+        <v>30</v>
+      </c>
+      <c r="DA7" s="30">
+        <v>31</v>
+      </c>
+      <c r="DB7" s="30">
+        <v>26</v>
+      </c>
+      <c r="DC7" s="30">
+        <v>27</v>
+      </c>
+      <c r="DD7" s="30">
+        <v>25</v>
+      </c>
+      <c r="DE7" s="30">
+        <v>23</v>
+      </c>
+      <c r="DF7" s="30">
+        <v>24</v>
+      </c>
+      <c r="DG7" s="30"/>
+      <c r="DH7" s="34">
+        <v>1</v>
+      </c>
+      <c r="DI7" s="32">
+        <v>3</v>
+      </c>
+      <c r="DJ7" s="32">
+        <v>2</v>
+      </c>
+      <c r="DK7" s="30">
+        <v>80</v>
+      </c>
+      <c r="DL7" s="30"/>
+      <c r="DM7" s="30">
+        <v>121</v>
+      </c>
+      <c r="DN7" s="30">
+        <v>44</v>
+      </c>
+      <c r="DO7" s="30">
+        <v>89</v>
+      </c>
+      <c r="DP7" s="30">
+        <v>98</v>
+      </c>
+      <c r="DQ7" s="30">
+        <v>92</v>
+      </c>
+      <c r="DR7" s="30">
+        <v>95</v>
+      </c>
+      <c r="DS7" s="30">
+        <v>90</v>
+      </c>
+      <c r="DT7" s="30">
+        <v>91</v>
+      </c>
+      <c r="DU7" s="30">
+        <v>93</v>
+      </c>
+      <c r="DV7" s="30">
+        <v>94</v>
+      </c>
+      <c r="DW7" s="30">
+        <v>97</v>
+      </c>
+      <c r="DX7" s="30">
+        <v>96</v>
+      </c>
+      <c r="DY7" s="30">
+        <v>99</v>
+      </c>
+      <c r="DZ7" s="30">
+        <v>10</v>
+      </c>
+      <c r="EA7" s="30">
+        <v>11</v>
+      </c>
+      <c r="EB7" s="30">
+        <v>12</v>
+      </c>
+      <c r="EC7" s="39">
+        <v>45</v>
+      </c>
+      <c r="ED7" s="30">
+        <v>39</v>
+      </c>
+      <c r="EE7" s="38">
+        <v>6</v>
+      </c>
+      <c r="EF7" s="38">
+        <v>4</v>
+      </c>
+      <c r="EG7" s="30">
+        <v>17</v>
+      </c>
+      <c r="EH7" s="30">
+        <v>18</v>
+      </c>
+      <c r="EI7" s="30">
+        <v>19</v>
+      </c>
+      <c r="EJ7" s="30">
+        <v>20</v>
+      </c>
+      <c r="EK7" s="30">
+        <v>21</v>
+      </c>
+      <c r="EL7" s="30">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BS3:BW3"/>
-    <mergeCell ref="BX3:BZ3"/>
-    <mergeCell ref="CC3:CH3"/>
-    <mergeCell ref="CZ3:DA3"/>
-    <mergeCell ref="DP3:DY3"/>
-    <mergeCell ref="DZ3:EA3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="EI3:EJ3"/>
+    <mergeCell ref="EA5:EB5"/>
+    <mergeCell ref="EH5:EL5"/>
+    <mergeCell ref="CS6:CU6"/>
+    <mergeCell ref="CL4:CN4"/>
+    <mergeCell ref="CO4:CQ4"/>
+    <mergeCell ref="CS4:CU4"/>
+    <mergeCell ref="CY4:DA4"/>
+    <mergeCell ref="DE4:DF4"/>
+    <mergeCell ref="DP4:DY4"/>
+    <mergeCell ref="EE4:EF4"/>
+    <mergeCell ref="BS4:BW4"/>
+    <mergeCell ref="BX4:BZ4"/>
+    <mergeCell ref="CD4:CF4"/>
+    <mergeCell ref="CX5:DB5"/>
+    <mergeCell ref="DD5:DF5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="BL4:BM4"/>
+    <mergeCell ref="BN4:BO4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="AR4:AT4"/>
+    <mergeCell ref="AV4:AX4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BD4:BG4"/>
     <mergeCell ref="EK3:EL3"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="AC2:AI2"/>
@@ -3476,32 +3551,27 @@
     <mergeCell ref="U3:AB3"/>
     <mergeCell ref="AC3:AI3"/>
     <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="AR4:AT4"/>
-    <mergeCell ref="AV4:AX4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="BL4:BM4"/>
-    <mergeCell ref="BN4:BO4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BW4"/>
-    <mergeCell ref="BX4:BZ4"/>
-    <mergeCell ref="CD4:CF4"/>
-    <mergeCell ref="CX5:DB5"/>
-    <mergeCell ref="DD5:DF5"/>
-    <mergeCell ref="EA5:EB5"/>
-    <mergeCell ref="EH5:EL5"/>
-    <mergeCell ref="CS6:CU6"/>
-    <mergeCell ref="CL4:CN4"/>
-    <mergeCell ref="CO4:CQ4"/>
-    <mergeCell ref="CS4:CU4"/>
-    <mergeCell ref="CY4:DA4"/>
-    <mergeCell ref="DE4:DF4"/>
-    <mergeCell ref="DP4:DY4"/>
-    <mergeCell ref="EE4:EF4"/>
+    <mergeCell ref="CZ3:DA3"/>
+    <mergeCell ref="DP3:DY3"/>
+    <mergeCell ref="DZ3:EA3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="EI3:EJ3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BS3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="CC3:CH3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{fbd41ebe-fca6-4f2c-aecb-bf3a17e72416}" enabled="1" method="Privileged" siteId="{bf346810-9c7d-43de-a872-24a2ef3995a8}" contentBits="3" removed="0"/>
+</clbl:labelList>
 </file>